--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value364.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value364.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6357441019356861</v>
+        <v>1.008212327957153</v>
       </c>
       <c r="B1">
-        <v>0.973535759722987</v>
+        <v>3.204925537109375</v>
       </c>
       <c r="C1">
-        <v>2.109218946016916</v>
+        <v>3.844389677047729</v>
       </c>
       <c r="D1">
-        <v>3.255827241977646</v>
+        <v>2.020413875579834</v>
       </c>
       <c r="E1">
-        <v>1.994726161565847</v>
+        <v>1.193008184432983</v>
       </c>
     </row>
   </sheetData>
